--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0646303166751848</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N2">
-        <v>0.0646303166751848</v>
+        <v>0.362231</v>
       </c>
       <c r="O2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P2">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q2">
-        <v>12.57993394470299</v>
+        <v>23.59758546428633</v>
       </c>
       <c r="R2">
-        <v>12.57993394470299</v>
+        <v>212.378269178577</v>
       </c>
       <c r="S2">
-        <v>0.000190484091752278</v>
+        <v>0.0003369243260847575</v>
       </c>
       <c r="T2">
-        <v>0.000190484091752278</v>
+        <v>0.0003369243260847575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5918509058762</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N3">
-        <v>47.5918509058762</v>
+        <v>146.580945</v>
       </c>
       <c r="O3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P3">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q3">
-        <v>9263.490750184597</v>
+        <v>9549.034668687533</v>
       </c>
       <c r="R3">
-        <v>9263.490750184597</v>
+        <v>85941.3120181878</v>
       </c>
       <c r="S3">
-        <v>0.1402668431933647</v>
+        <v>0.1363403080106118</v>
       </c>
       <c r="T3">
-        <v>0.1402668431933647</v>
+        <v>0.1363403080106117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,57 +658,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H4">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.946977158392</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N4">
-        <v>57.946977158392</v>
+        <v>185.724758</v>
       </c>
       <c r="O4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P4">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q4">
-        <v>11279.05884495962</v>
+        <v>12099.06344222029</v>
       </c>
       <c r="R4">
-        <v>11279.05884495962</v>
+        <v>108891.5709799826</v>
       </c>
       <c r="S4">
-        <v>0.1707863721182167</v>
+        <v>0.1727494028020923</v>
       </c>
       <c r="T4">
-        <v>0.1707863721182167</v>
+        <v>0.1727494028020922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.76733514587799</v>
+        <v>195.435389</v>
       </c>
       <c r="H5">
-        <v>79.76733514587799</v>
+        <v>586.306167</v>
       </c>
       <c r="I5">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J5">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.0646303166751848</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N5">
-        <v>0.0646303166751848</v>
+        <v>0.15862</v>
       </c>
       <c r="O5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P5">
-        <v>0.0006120094707698289</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q5">
-        <v>5.155388130813694</v>
+        <v>10.33332046772667</v>
       </c>
       <c r="R5">
-        <v>5.155388130813694</v>
+        <v>92.99988420954</v>
       </c>
       <c r="S5">
-        <v>7.806236742141378E-05</v>
+        <v>0.0001475382742050356</v>
       </c>
       <c r="T5">
-        <v>7.806236742141378E-05</v>
+        <v>0.0001475382742050356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H6">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I6">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J6">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.5918509058762</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N6">
-        <v>47.5918509058762</v>
+        <v>0.362231</v>
       </c>
       <c r="O6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P6">
-        <v>0.4506656470870311</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q6">
-        <v>3796.275121421684</v>
+        <v>9.638635186899776</v>
       </c>
       <c r="R6">
-        <v>3796.275121421684</v>
+        <v>86.74771668209799</v>
       </c>
       <c r="S6">
-        <v>0.0574828152297465</v>
+        <v>0.0001376196166187401</v>
       </c>
       <c r="T6">
-        <v>0.0574828152297465</v>
+        <v>0.00013761961661874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H7">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.946977158392</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N7">
-        <v>57.946977158392</v>
+        <v>146.580945</v>
       </c>
       <c r="O7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P7">
-        <v>0.5487223434421992</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q7">
-        <v>4622.275947683992</v>
+        <v>3900.384710877923</v>
       </c>
       <c r="R7">
-        <v>4622.275947683992</v>
+        <v>35103.4623979013</v>
       </c>
       <c r="S7">
-        <v>0.06999003648136981</v>
+        <v>0.0556893624634905</v>
       </c>
       <c r="T7">
-        <v>0.06999003648136981</v>
+        <v>0.05568936246349048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H8">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J8">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0646303166751848</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N8">
-        <v>0.0646303166751848</v>
+        <v>185.724758</v>
       </c>
       <c r="O8">
-        <v>0.0006120094707698289</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P8">
-        <v>0.0006120094707698289</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q8">
-        <v>10.48426303162799</v>
+        <v>4941.965727773841</v>
       </c>
       <c r="R8">
-        <v>10.48426303162799</v>
+        <v>44477.69154996456</v>
       </c>
       <c r="S8">
-        <v>0.0001587516540269714</v>
+        <v>0.07056096798056567</v>
       </c>
       <c r="T8">
-        <v>0.0001587516540269714</v>
+        <v>0.07056096798056564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H9">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J9">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>47.5918509058762</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N9">
-        <v>47.5918509058762</v>
+        <v>0.15862</v>
       </c>
       <c r="O9">
-        <v>0.4506656470870311</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P9">
-        <v>0.4506656470870311</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q9">
-        <v>7720.300761744678</v>
+        <v>4.220732939328889</v>
       </c>
       <c r="R9">
-        <v>7720.300761744678</v>
+        <v>37.98659645396</v>
       </c>
       <c r="S9">
-        <v>0.1169000159396365</v>
+        <v>6.026326732958955E-05</v>
       </c>
       <c r="T9">
-        <v>0.1169000159396365</v>
+        <v>6.026326732958954E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H10">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I10">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J10">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.946977158392</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N10">
-        <v>57.946977158392</v>
+        <v>0.362231</v>
       </c>
       <c r="O10">
-        <v>0.5487223434421992</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P10">
-        <v>0.5487223434421992</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q10">
-        <v>9400.098617334892</v>
+        <v>19.62225342275144</v>
       </c>
       <c r="R10">
-        <v>9400.098617334892</v>
+        <v>176.600280804763</v>
       </c>
       <c r="S10">
-        <v>0.142335345747887</v>
+        <v>0.000280164871983643</v>
       </c>
       <c r="T10">
-        <v>0.142335345747887</v>
+        <v>0.000280164871983643</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>158.632386490809</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H11">
-        <v>158.632386490809</v>
+        <v>487.534973</v>
       </c>
       <c r="I11">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J11">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0646303166751848</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N11">
-        <v>0.0646303166751848</v>
+        <v>146.580945</v>
       </c>
       <c r="O11">
-        <v>0.0006120094707698289</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P11">
-        <v>0.0006120094707698289</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q11">
-        <v>10.25246137384129</v>
+        <v>7940.370784765496</v>
       </c>
       <c r="R11">
-        <v>10.25246137384129</v>
+        <v>71463.33706288948</v>
       </c>
       <c r="S11">
-        <v>0.0001552417366900235</v>
+        <v>0.1133719413610829</v>
       </c>
       <c r="T11">
-        <v>0.0001552417366900235</v>
+        <v>0.1133719413610829</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>158.632386490809</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H12">
-        <v>158.632386490809</v>
+        <v>487.534973</v>
       </c>
       <c r="I12">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J12">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.5918509058762</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N12">
-        <v>47.5918509058762</v>
+        <v>185.724758</v>
       </c>
       <c r="O12">
-        <v>0.4506656470870311</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P12">
-        <v>0.4506656470870311</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q12">
-        <v>7549.608886713912</v>
+        <v>10060.81276410684</v>
       </c>
       <c r="R12">
-        <v>7549.608886713912</v>
+        <v>90547.31487696154</v>
       </c>
       <c r="S12">
-        <v>0.1143154167734049</v>
+        <v>0.1436474322994528</v>
       </c>
       <c r="T12">
-        <v>0.1143154167734049</v>
+        <v>0.1436474322994528</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>158.632386490809</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H13">
-        <v>158.632386490809</v>
+        <v>487.534973</v>
       </c>
       <c r="I13">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J13">
-        <v>0.2536590430451174</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>57.946977158392</v>
+        <v>0.05287333333333333</v>
       </c>
       <c r="N13">
-        <v>57.946977158392</v>
+        <v>0.15862</v>
       </c>
       <c r="O13">
-        <v>0.5487223434421992</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="P13">
-        <v>0.5487223434421992</v>
+        <v>0.0004765845696314243</v>
       </c>
       <c r="Q13">
-        <v>9192.267276564122</v>
+        <v>8.592533046362222</v>
       </c>
       <c r="R13">
-        <v>9192.267276564122</v>
+        <v>77.33279741726</v>
       </c>
       <c r="S13">
-        <v>0.1391883845350225</v>
+        <v>0.0001226834588813367</v>
       </c>
       <c r="T13">
-        <v>0.1391883845350225</v>
+        <v>0.0001226834588813367</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.1132697218668</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H14">
-        <v>30.1132697218668</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I14">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J14">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0646303166751848</v>
+        <v>0.1207436666666667</v>
       </c>
       <c r="N14">
-        <v>0.0646303166751848</v>
+        <v>0.362231</v>
       </c>
       <c r="O14">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="P14">
-        <v>0.0006120094707698289</v>
+        <v>0.001088347656299082</v>
       </c>
       <c r="Q14">
-        <v>1.946230158249505</v>
+        <v>19.29375623107156</v>
       </c>
       <c r="R14">
-        <v>1.946230158249505</v>
+        <v>173.643806079644</v>
       </c>
       <c r="S14">
-        <v>2.946962087914222E-05</v>
+        <v>0.0002754746169109372</v>
       </c>
       <c r="T14">
-        <v>2.946962087914222E-05</v>
+        <v>0.0002754746169109371</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,57 +1340,57 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.1132697218668</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H15">
-        <v>30.1132697218668</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I15">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J15">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.5918509058762</v>
+        <v>48.86031499999999</v>
       </c>
       <c r="N15">
-        <v>47.5918509058762</v>
+        <v>146.580945</v>
       </c>
       <c r="O15">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="P15">
-        <v>0.4506656470870311</v>
+        <v>0.4404124107236948</v>
       </c>
       <c r="Q15">
-        <v>1433.146242891521</v>
+        <v>7807.440613724687</v>
       </c>
       <c r="R15">
-        <v>1433.146242891521</v>
+        <v>70266.96552352219</v>
       </c>
       <c r="S15">
-        <v>0.02170055595087833</v>
+        <v>0.1114739756407324</v>
       </c>
       <c r="T15">
-        <v>0.02170055595087833</v>
+        <v>0.1114739756407324</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,362 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.1132697218668</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H16">
-        <v>30.1132697218668</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I16">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J16">
-        <v>0.04815223013146062</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.946977158392</v>
+        <v>61.90825266666667</v>
       </c>
       <c r="N16">
-        <v>57.946977158392</v>
+        <v>185.724758</v>
       </c>
       <c r="O16">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="P16">
-        <v>0.5487223434421992</v>
+        <v>0.5580226570503747</v>
       </c>
       <c r="Q16">
-        <v>1744.972952737513</v>
+        <v>9892.38416073378</v>
       </c>
       <c r="R16">
-        <v>1744.972952737513</v>
+        <v>89031.45744660401</v>
       </c>
       <c r="S16">
-        <v>0.02642220455970314</v>
+        <v>0.14124262296967</v>
       </c>
       <c r="T16">
-        <v>0.02642220455970314</v>
+        <v>0.1412426229696699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H17">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J17">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.15862</v>
+      </c>
+      <c r="O17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P17">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q17">
+        <v>8.44868499209778</v>
+      </c>
+      <c r="R17">
+        <v>76.03816492888002</v>
+      </c>
+      <c r="S17">
+        <v>0.0001206296085492762</v>
+      </c>
+      <c r="T17">
+        <v>0.0001206296085492762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H18">
+        <v>101.215736</v>
+      </c>
+      <c r="I18">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J18">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1207436666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.362231</v>
+      </c>
+      <c r="O18">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="P18">
+        <v>0.001088347656299082</v>
+      </c>
+      <c r="Q18">
+        <v>4.07371969633511</v>
+      </c>
+      <c r="R18">
+        <v>36.66347726701599</v>
+      </c>
+      <c r="S18">
+        <v>5.81642247010046E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.816422470100459E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H19">
+        <v>101.215736</v>
+      </c>
+      <c r="I19">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J19">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.86031499999999</v>
+      </c>
+      <c r="N19">
+        <v>146.580945</v>
+      </c>
+      <c r="O19">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="P19">
+        <v>0.4404124107236948</v>
+      </c>
+      <c r="Q19">
+        <v>1648.477581305613</v>
+      </c>
+      <c r="R19">
+        <v>14836.29823175052</v>
+      </c>
+      <c r="S19">
+        <v>0.02353682324777724</v>
+      </c>
+      <c r="T19">
+        <v>0.02353682324777723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H20">
+        <v>101.215736</v>
+      </c>
+      <c r="I20">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J20">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>61.90825266666667</v>
+      </c>
+      <c r="N20">
+        <v>185.724758</v>
+      </c>
+      <c r="O20">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="P20">
+        <v>0.5580226570503747</v>
+      </c>
+      <c r="Q20">
+        <v>2088.69645271021</v>
+      </c>
+      <c r="R20">
+        <v>18798.26807439189</v>
+      </c>
+      <c r="S20">
+        <v>0.029822230998594</v>
+      </c>
+      <c r="T20">
+        <v>0.029822230998594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H21">
+        <v>101.215736</v>
+      </c>
+      <c r="I21">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J21">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05287333333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.15862</v>
+      </c>
+      <c r="O21">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="P21">
+        <v>0.0004765845696314243</v>
+      </c>
+      <c r="Q21">
+        <v>1.783871116035555</v>
+      </c>
+      <c r="R21">
+        <v>16.05484004432</v>
+      </c>
+      <c r="S21">
+        <v>2.546996066618636E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.546996066618636E-05</v>
       </c>
     </row>
   </sheetData>
